--- a/results/CV/2023/1_category/report_df.xlsx
+++ b/results/CV/2023/1_category/report_df.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_R\OneDrive\Desktop\REPO\TS_ANALYSIS\results\CV\2023\1_category\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF792D4-8ED0-4CD6-AE38-BCD294CB81EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3345" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -69,11 +52,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,18 +73,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,34 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,24 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -481,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -489,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>44927.564583333333</v>
+        <v>44927.56458333333</v>
       </c>
       <c r="D2">
         <v>61022</v>
       </c>
       <c r="E2" s="2">
-        <v>44927.723611111112</v>
+        <v>44969.94097222222</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -504,7 +460,7 @@
         <v>0.18287</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,13 +468,13 @@
         <v>61022</v>
       </c>
       <c r="C3" s="2">
-        <v>44927.723611111112</v>
+        <v>44969.94097222222</v>
       </c>
       <c r="D3">
         <v>144116</v>
       </c>
       <c r="E3" s="2">
-        <v>44927.877083333333</v>
+        <v>45027.64513888889</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -527,7 +483,7 @@
         <v>0.1343</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -535,22 +491,22 @@
         <v>144116</v>
       </c>
       <c r="C4" s="2">
-        <v>44927.877083333333</v>
+        <v>45027.64513888889</v>
       </c>
       <c r="D4">
         <v>268593</v>
       </c>
       <c r="E4" s="2">
-        <v>44927.902777777781</v>
+        <v>45114.0875</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>8.9649999999999994E-2</v>
+        <v>0.08964999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,60 +514,22 @@
         <v>268593</v>
       </c>
       <c r="C5" s="2">
-        <v>44927.902777777781</v>
+        <v>45114.0875</v>
       </c>
       <c r="D5">
         <v>436485</v>
       </c>
       <c r="E5" s="2">
-        <v>44929.518055555563</v>
+        <v>45230.67916666667</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>5.9819999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <f>D2*0.00000418</f>
-        <v>0.25507195999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>B3*0.00000307+0.06767564</f>
-        <v>0.25501318000000001</v>
-      </c>
-      <c r="D8">
-        <f>D3*0.00000307+0.06767564</f>
-        <v>0.51011176000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>B4*0.00000205+0.21458035</f>
-        <v>0.51001814999999995</v>
-      </c>
-      <c r="D9">
-        <f>D4*0.00000205+0.21458035</f>
-        <v>0.76519599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>B5*0.00000137+0.39749894</f>
-        <v>0.76547135000000011</v>
-      </c>
-      <c r="D10">
-        <f>D5*0.00000137+0.39749894</f>
-        <v>0.99548338999999997</v>
+        <v>0.05982</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>